--- a/TestcasesData/DASHPRO_NETWORK.xlsx
+++ b/TestcasesData/DASHPRO_NETWORK.xlsx
@@ -15,6 +15,8 @@
     <sheet name="NETWORK_AXES" sheetId="1" r:id="rId1"/>
     <sheet name="NETWORK_CHART_STYLING" sheetId="2" r:id="rId2"/>
     <sheet name="NETWORK_DATA_LABELS" sheetId="4" r:id="rId3"/>
+    <sheet name="NETWORK_LEGEND" sheetId="5" r:id="rId4"/>
+    <sheet name="NETWORK_OTHERS" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="349">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -433,20 +435,11 @@
     <t>TC_ NETWORK_028</t>
   </si>
   <si>
-    <t>Verify that sum,count , Average,Min,Max and unique aggregation for numerical Column</t>
-  </si>
-  <si>
     <t>1. Click on the Categories.
 2. Select any input Column.
 3. Click on the Series.
 4. Select input as Numirical column in the series.
 5. Click aggregation field and check sum,count , Average,Min,Max and unique aggregation</t>
-  </si>
-  <si>
-    <t>Unique and count'aggregations should only avialable for categrical,text and date Column</t>
-  </si>
-  <si>
-    <t>TC_ NETWORK_029</t>
   </si>
   <si>
     <t>Verify that the Numerical Column is selected in the input field and applied properly</t>
@@ -503,9 +496,6 @@
     <t>TS_NETWORK_002</t>
   </si>
   <si>
-    <t>Verify the functionality of chart styling</t>
-  </si>
-  <si>
     <t>TC_NETWORK_002</t>
   </si>
   <si>
@@ -880,12 +870,363 @@
   <si>
     <t>Yes</t>
   </si>
+  <si>
+    <t>Verify Series field dropdown get expanded upon click</t>
+  </si>
+  <si>
+    <t>TC_ NETWORK_026</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>Not able to perform in this widget</t>
+  </si>
+  <si>
+    <t>Verify that sum,count , Average,Min,Max and unique aggregation are enabled for numerical Column</t>
+  </si>
+  <si>
+    <t>sum,count , Average,Min,Max and unique aggregation should enabled for Numerical</t>
+  </si>
+  <si>
+    <t>Modified the testcase</t>
+  </si>
+  <si>
+    <t>Verify that the chart styling section is collapsed when click on it</t>
+  </si>
+  <si>
+    <t>1. Click chart format
+2. Click Chart Style</t>
+  </si>
+  <si>
+    <t>Chart Styling should get Collapsed</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_016</t>
+  </si>
+  <si>
+    <t>Verify that the Data Labels section is expanded by default</t>
+  </si>
+  <si>
+    <t>1. Chart format should get expanded
+2. Chart Chart Format get expanded</t>
+  </si>
+  <si>
+    <t>Data Labels should get expand by default</t>
+  </si>
+  <si>
+    <t>Verify by default 'Select' is displayed in the seperator input</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "enable value" option in the data label. 
+2. Click on the "enable value" toggle. 
+3. Check the seperator input</t>
+  </si>
+  <si>
+    <t>By default, 'Select' is displayed in the Seperator input.</t>
+  </si>
+  <si>
+    <t>Verify the default selection of RoundOff input</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "enable value" option in the data label. 
+2. Click on the "enable value" toggle. 
+3. Check the RoundOff value toggle</t>
+  </si>
+  <si>
+    <t>By default, 'Select' is displayed in the RoundOff input</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_017</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_018</t>
+  </si>
+  <si>
+    <t>Data Labels should get Collapsed</t>
+  </si>
+  <si>
+    <t>1. Click chart format
+2. Click Data Labels</t>
+  </si>
+  <si>
+    <t>1. Chart format should get expanded
+2. Data Labels get expanded</t>
+  </si>
+  <si>
+    <t>Verify that the Data Label section is collapsed when click on it</t>
+  </si>
+  <si>
+    <t>Newly added testcases</t>
+  </si>
+  <si>
+    <t>DASHPRO - NETWORK - LEGEND</t>
+  </si>
+  <si>
+    <t>Verify the legend is expandable</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_LEGEND_001</t>
+  </si>
+  <si>
+    <t>Validate the visibility of legend label options.
+1. Legend toggle
+2. Legend position
+3. Legend font size</t>
+  </si>
+  <si>
+    <t>1. Chart Format should be expanded.
+2. legend should be expanded.</t>
+  </si>
+  <si>
+    <t>1. Check if legend section options are visible.</t>
+  </si>
+  <si>
+    <t>Legends options should be displayed. 1. Legend toggle. 2. Legend position. 3. Legend font size.</t>
+  </si>
+  <si>
+    <t>Verify functionality of Legend Toggle</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_LEGEND_002</t>
+  </si>
+  <si>
+    <t>Check whether the legend toggle is enabled by default.</t>
+  </si>
+  <si>
+    <t>1. Chart Format must be expanded
+2. Legend should be expanded.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the legend toggle in legend section.
+2. Verify if the legen toggle is enabled.</t>
+  </si>
+  <si>
+    <t>The legend toggle should be enabled.
+The below options should be accessible
+1. Legend position. 
+2. Legend font size.</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_LEGEND_003</t>
+  </si>
+  <si>
+    <t>Confirm that options are inaccessible when the legend toggle is disabled.</t>
+  </si>
+  <si>
+    <t>1. Check if legend options are inaccessible.</t>
+  </si>
+  <si>
+    <t>Legend section options should be inaccessible
+1. Legend position. 
+2. Legend font size.</t>
+  </si>
+  <si>
+    <t>Verify functionality of legend position</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_LEGEND_004</t>
+  </si>
+  <si>
+    <t>Verify the default selection of legend</t>
+  </si>
+  <si>
+    <t>1. Chart Format must be expanded
+2. Legend should be expanded
+3. Legend toggle should be enabled.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the legend toggle in legend section.
+2. Click on the legend toggle.
+3. Check the legend position field.</t>
+  </si>
+  <si>
+    <t>The bottom is set to default in the legend position field and the legends are placed in bottom of chart</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_LEGEND_005</t>
+  </si>
+  <si>
+    <t>Validate the accessibility of the legend position (Top, right, left)</t>
+  </si>
+  <si>
+    <t>1. Navigate to the legend toggle in legend section.
+2. Click on the legend toggle.
+3. Click in the legend position field.</t>
+  </si>
+  <si>
+    <t>The legend field should be accessible and dropdown get expanded with options like top,bottom ,right,left.</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_LEGEND_006</t>
+  </si>
+  <si>
+    <t>Verify that the legend position works properly (Top, right, left)</t>
+  </si>
+  <si>
+    <t>1. Navigate to the legend toggle in legend section.
+2. Click on the legend toggle.
+3. Click the legend position field. 4. Select top/right/left and apply</t>
+  </si>
+  <si>
+    <t>The legend should be displayed on the selected position (Top/right/left)</t>
+  </si>
+  <si>
+    <t>Verify functionality of legend fontsize</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_LEGEND_007</t>
+  </si>
+  <si>
+    <t>Verify that the legend font size is accessible.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "legend toggle" option in the data label.
+2. Click on the "legend toggle" toggle.
+3. Click the legend font size.</t>
+  </si>
+  <si>
+    <t>The legend font size should be accessible, and the dropdown should expand.</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_LEGEND_008</t>
+  </si>
+  <si>
+    <t>Verify the legend font size is dispalyed by default</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "legend toggle" option in the data label.
+2. Click on the "legend toggle" toggle.
+3. Check the legend font size.</t>
+  </si>
+  <si>
+    <t>By default, '10' is displayed in the legend font size.</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_LEGEND_009</t>
+  </si>
+  <si>
+    <t>Verify that the legend font size works properly.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the "legend toggle" option in the data label.
+2. Click on the "legend toggle" toggle.
+3. Click the legend font size. 4.Select legend font size and apply</t>
+  </si>
+  <si>
+    <t>The legends of charts displayed according to selected legend font size</t>
+  </si>
+  <si>
+    <t>Verify that the legend is collapsable.</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_LEGEND_010</t>
+  </si>
+  <si>
+    <t>1. The chart format should be expanded.
+2. The legend section should be expanded.</t>
+  </si>
+  <si>
+    <t>1. Click on the legend section.</t>
+  </si>
+  <si>
+    <t>The legend should get collapsed.</t>
+  </si>
+  <si>
+    <t>TC_NETWORK_LEGEND_011</t>
+  </si>
+  <si>
+    <t>Verify that the Legend section is expanded by default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Chart Format should be expanded.
+</t>
+  </si>
+  <si>
+    <t>1. Check if legend is expanded</t>
+  </si>
+  <si>
+    <t>Legend section should be expanded by default</t>
+  </si>
+  <si>
+    <t>Newly added testcase</t>
+  </si>
+  <si>
+    <t>DASHPRO - NETWORK - OTHERS</t>
+  </si>
+  <si>
+    <t>Verify functionality of Others</t>
+  </si>
+  <si>
+    <t>Confirm the visibility of options within the "Others" section.
+1. Export</t>
+  </si>
+  <si>
+    <t>1. The chart format and the "Others" section must be expanded.</t>
+  </si>
+  <si>
+    <t>1. Ensure that both the chart format and the "Others" section are expanded.
+2. Verify the visibility of options within the "Others" section.</t>
+  </si>
+  <si>
+    <t>All options within the "Others" section should be be expandable</t>
+  </si>
+  <si>
+    <t>Verify the Functionality of export toggle</t>
+  </si>
+  <si>
+    <t>Confirm that the export toggle is disabled by default.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the Export Toggle within the "Others" section.
+2. Verify that the export toggle is disabled.
+3. Apply changes.</t>
+  </si>
+  <si>
+    <t>The export toggle should be disabled by default.</t>
+  </si>
+  <si>
+    <t>Validate that the export toggle can be enabled and functions properly.</t>
+  </si>
+  <si>
+    <t>1. Navigate to the export toggle within the "Others" section.
+2. Enable the export toggle.
+3. Apply changes.</t>
+  </si>
+  <si>
+    <t>Export Options should enabled in chart</t>
+  </si>
+  <si>
+    <t>Verify that the Others section is expanded by default</t>
+  </si>
+  <si>
+    <t>Others section should be expanded by default</t>
+  </si>
+  <si>
+    <t>1. Check if Others is expanded</t>
+  </si>
+  <si>
+    <t>Verify that the Others section is collapsable.</t>
+  </si>
+  <si>
+    <t>1. Click on the others section.</t>
+  </si>
+  <si>
+    <t>1. The chart format should be expanded.
+2. The others section should be expanded.</t>
+  </si>
+  <si>
+    <t>The others should get collapsed.</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -944,8 +1285,45 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,14 +1342,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -994,11 +1366,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1034,7 +1419,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1317,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,10 +1748,10 @@
     <col min="9" max="9" width="34" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="12" max="13" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1352,8 +1764,9 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -1370,8 +1783,9 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1388,8 +1802,9 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -1406,14 +1821,15 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
@@ -1424,8 +1840,9 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1438,8 +1855,9 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +1868,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
@@ -1474,10 +1892,13 @@
         <v>15</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="90.75" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1488,7 +1909,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>19</v>
@@ -1508,8 +1929,9 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="75.75" x14ac:dyDescent="0.25">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1520,7 +1942,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>27</v>
@@ -1538,8 +1960,9 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1550,7 +1973,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -1568,8 +1991,9 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -1580,7 +2004,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>39</v>
@@ -1600,15 +2024,16 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>249</v>
+        <v>348</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>44</v>
@@ -1626,15 +2051,18 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M12" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>48</v>
@@ -1652,15 +2080,16 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>52</v>
@@ -1678,15 +2107,16 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>56</v>
@@ -1704,15 +2134,16 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>59</v>
@@ -1730,15 +2161,16 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>62</v>
@@ -1756,15 +2188,16 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>66</v>
@@ -1782,15 +2215,16 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>70</v>
@@ -1808,15 +2242,16 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>73</v>
@@ -1834,15 +2269,16 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>77</v>
@@ -1860,15 +2296,16 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>81</v>
@@ -1886,24 +2323,25 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>48</v>
+        <v>246</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="5" t="s">
@@ -1912,15 +2350,16 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>84</v>
@@ -1938,15 +2377,16 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>88</v>
@@ -1964,15 +2404,16 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>91</v>
@@ -1990,15 +2431,16 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>94</v>
@@ -2016,15 +2458,16 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="5" t="s">
-        <v>93</v>
+      <c r="C28" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>97</v>
@@ -2042,15 +2485,16 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>99</v>
@@ -2068,15 +2512,16 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>102</v>
@@ -2094,41 +2539,45 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" ht="75.75" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="C31" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="5" t="s">
+      <c r="H31" s="12"/>
+      <c r="I31" s="11" t="s">
         <v>107</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="M31" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>109</v>
@@ -2146,15 +2595,16 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>113</v>
@@ -2174,8 +2624,9 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" ht="75.75" x14ac:dyDescent="0.25">
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>115</v>
       </c>
@@ -2186,7 +2637,7 @@
         <v>112</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>117</v>
@@ -2204,15 +2655,16 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" ht="75.75" x14ac:dyDescent="0.25">
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="5" t="s">
-        <v>120</v>
+        <v>247</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>121</v>
@@ -2230,60 +2682,65 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" ht="120.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>40</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="5" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" ht="240.75" x14ac:dyDescent="0.25">
+      <c r="M36" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="240.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>22</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2298,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,10 +2774,10 @@
     <col min="9" max="9" width="34.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="12" max="13" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2333,8 +2790,9 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2351,14 +2809,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2369,8 +2828,9 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2383,8 +2843,9 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -2401,14 +2862,15 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2419,8 +2881,9 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2433,8 +2896,9 @@
       <c r="J7" s="8"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2447,19 +2911,20 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
@@ -2483,273 +2948,311 @@
         <v>15</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="M10" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D19">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2765,10 +3268,10 @@
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2781,8 +3284,9 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2799,14 +3303,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2817,8 +3322,9 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2831,8 +3337,9 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -2849,14 +3356,15 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
@@ -2867,8 +3375,9 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2881,19 +3390,20 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>9</v>
@@ -2917,429 +3427,1423 @@
         <v>15</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>184</v>
+        <v>258</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="9" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>187</v>
-      </c>
+      <c r="M9" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="9" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="C11" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="9" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="C14" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="9" t="s">
-        <v>205</v>
+        <v>262</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="9" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>210</v>
-      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>212</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="9" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="9" t="s">
-        <v>216</v>
+      <c r="C17" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="18" t="s">
+        <v>205</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>206</v>
+      </c>
       <c r="C18" s="9" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="9" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="9" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>226</v>
-      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="9" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="9" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="9" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="9" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="9" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D27">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D19">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="13" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D13">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>